--- a/ModeloParcial/tablasDinamicasModeloParcial.xlsx
+++ b/ModeloParcial/tablasDinamicasModeloParcial.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14205" windowHeight="6105" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14205" windowHeight="6105" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="aprobados" sheetId="2" r:id="rId1"/>
@@ -17,9 +17,9 @@
     <sheet name="Hoja3" sheetId="4" r:id="rId3"/>
     <sheet name="dos" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -223,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,6 +409,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -570,7 +576,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -581,6 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -626,154 +633,7 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -6099,7 +5959,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0">
@@ -6819,7 +6679,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField showAll="0">
@@ -7539,7 +7399,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="materias">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="materias">
   <location ref="A4:BJ46" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -8008,7 +7868,7 @@
     <dataField name="Cuenta de nota" fld="6" subtotal="countNums" baseField="1" baseItem="0"/>
   </dataFields>
   <formats count="21">
-    <format dxfId="41">
+    <format dxfId="20">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1">
@@ -8020,7 +7880,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="19">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1">
@@ -8032,7 +7892,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="18">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1">
@@ -8044,7 +7904,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="17">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1">
@@ -8056,7 +7916,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="16">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1">
@@ -8068,7 +7928,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="15">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1">
@@ -8080,7 +7940,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1">
@@ -8092,7 +7952,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1">
@@ -8104,7 +7964,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1">
@@ -8116,7 +7976,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="11">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1">
@@ -8128,7 +7988,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1">
@@ -8140,7 +8000,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="9">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1">
@@ -8152,7 +8012,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="8">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1">
@@ -8164,7 +8024,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1">
@@ -8176,7 +8036,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="6">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1">
@@ -8188,7 +8048,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1">
@@ -8200,7 +8060,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1">
@@ -8212,7 +8072,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1">
@@ -8224,7 +8084,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1">
@@ -8236,7 +8096,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1">
@@ -8248,7 +8108,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1">
@@ -8901,7 +8761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -9264,8 +9124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI55" sqref="AI55"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13184,7 +13044,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -13411,6 +13271,10 @@
       <c r="BI48" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="BJ48" s="6">
+        <f>SUM(B48:BI48)</f>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
